--- a/biology/Médecine/Oncocytome/Oncocytome.xlsx
+++ b/biology/Médecine/Oncocytome/Oncocytome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oncocytome est une tumeur bénigne de nature glandulaire (adénome) ; à signaler toutefois que certaines formes malignes ont été discutées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oncocytome est une tumeur bénigne de nature glandulaire (adénome) ; à signaler toutefois que certaines formes malignes ont été discutées.
 Ce terme vient du Grec (onkos : masse et kutos : cellule).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette lésion touche essentiellement les reins[2], les bronches et surtout les glandes salivaires (parotide).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette lésion touche essentiellement les reins, les bronches et surtout les glandes salivaires (parotide).
 Elle peut, plus rarement, atteindre les muqueuses digestives (côlon, estomac).
 </t>
         </is>
@@ -544,13 +558,50 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La tumeur est constituée de cellules oncocytaires éosinophiles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tumeur est constituée de cellules oncocytaires éosinophiles.
 Les noyaux des oncocytomes sont toujours ronds et réguliers (par opposition aux noyaux des carcinomes à cellules chromophobes qui sont, au contraire, anguleux, rainurés et avec inclusion cytoplasmique).
-L'immuno-histochimie et les critères cytogénétiques sont utilisés pour confirmer le diagnostic[3].
-Profil immunohistochimique
-Profil immunohistochimique de l'oncocytome rénal[4] :
+L'immuno-histochimie et les critères cytogénétiques sont utilisés pour confirmer le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oncocytome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncocytome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Profil immunohistochimique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Profil immunohistochimique de l'oncocytome rénal :
 Cytokératine AE1/AE3 +
 Vimentine -
 EMA (en) +
@@ -567,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Oncocytome</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Oncocytome</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son évolution est le plus souvent favorable, mais un diagnostic histologique s'impose afin d'éliminer une tumeur maligne.
 La localisation parotidienne semble la plus fréquemment décelée (80 % des cas), cependant il faut relativiser ce chiffre dans la mesure où la masse tumorale y est perçue par le patient lui-même, sous la forme d'un nodule légèrement douloureux au niveau maxillaire.
